--- a/data/low_load/res_bus/vm_pu.xlsx
+++ b/data/low_load/res_bus/vm_pu.xlsx
@@ -470,28 +470,28 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9705639257952196</v>
+        <v>0.9770689021982487</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9596723571687</v>
+        <v>0.9713982585281572</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9721117928026484</v>
+        <v>0.9837964669732713</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9569379107577982</v>
+        <v>0.9810173551790479</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9689205189241158</v>
+        <v>0.9794051944554497</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9518939783844076</v>
+        <v>0.9599343918186669</v>
       </c>
     </row>
     <row r="3">
@@ -502,28 +502,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9703415523485021</v>
+        <v>0.9773444074186236</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9594391403415975</v>
+        <v>0.9719665909833779</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9720142722763662</v>
+        <v>0.9842331101061367</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9568716539801632</v>
+        <v>0.9817847012381081</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9687583659151267</v>
+        <v>0.9797478451979084</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9514651051953252</v>
+        <v>0.9602271594372132</v>
       </c>
     </row>
     <row r="4">
@@ -540,22 +540,22 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9702129656470758</v>
+        <v>0.9773955454859975</v>
       </c>
       <c r="F4" t="n">
-        <v>0.959157668271474</v>
+        <v>0.9720422681169626</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9719364149100548</v>
+        <v>0.9841361153242653</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9569238180205313</v>
+        <v>0.9813880781322182</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9687420591905804</v>
+        <v>0.9796457153688343</v>
       </c>
       <c r="J4" t="n">
-        <v>0.951364398663082</v>
+        <v>0.9603017763077397</v>
       </c>
     </row>
     <row r="5">
@@ -569,25 +569,25 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9700265503834223</v>
+        <v>0.977404382560128</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9586639932865749</v>
+        <v>0.971806360469307</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9716104382972524</v>
+        <v>0.9841075531384902</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9564360460108129</v>
+        <v>0.9815774124676808</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9685620994964006</v>
+        <v>0.9797892213215904</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9513060837672211</v>
+        <v>0.9605610011312404</v>
       </c>
     </row>
     <row r="6">
@@ -604,22 +604,22 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.970392210747709</v>
+        <v>0.9774830297757936</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9594440085293099</v>
+        <v>0.9720771810686116</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9720217721481557</v>
+        <v>0.9843385785741414</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9568918364723648</v>
+        <v>0.9819953281038224</v>
       </c>
       <c r="I6" t="n">
-        <v>0.968815042527399</v>
+        <v>0.9799158064553247</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9516170599251911</v>
+        <v>0.9605231923083902</v>
       </c>
     </row>
     <row r="7">
@@ -630,28 +630,28 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.96998139276022</v>
+        <v>0.9776354807741425</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9585938789294087</v>
+        <v>0.9723127798223427</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9716227569808318</v>
+        <v>0.9845052072120837</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9565408601449052</v>
+        <v>0.9822629043080872</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9685771791535484</v>
+        <v>0.9800843425112913</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9512451578968978</v>
+        <v>0.960780880928643</v>
       </c>
     </row>
     <row r="8">
@@ -665,25 +665,25 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9701596310284272</v>
+        <v>0.9772791379437562</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9590137996036777</v>
+        <v>0.9716842986578667</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9716888639274512</v>
+        <v>0.983979359745549</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9563121810950788</v>
+        <v>0.9812958921854994</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9685418834127248</v>
+        <v>0.9796109543075533</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9513640841196831</v>
+        <v>0.9602919732414078</v>
       </c>
     </row>
     <row r="9">
@@ -694,28 +694,28 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D9" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9702573553691464</v>
+        <v>0.9772209050307962</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9591364996089324</v>
+        <v>0.9717674538005894</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9719326302032012</v>
+        <v>0.98408623201015</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9569312398353158</v>
+        <v>0.9815566435344577</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9687948306393241</v>
+        <v>0.9796161470277216</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9515166179779847</v>
+        <v>0.9600570831554178</v>
       </c>
     </row>
     <row r="10">
@@ -732,22 +732,22 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9704638831609602</v>
+        <v>0.9776948049696794</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9594241916020091</v>
+        <v>0.9724065760252817</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9720260684761772</v>
+        <v>0.9844318559081656</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9569199382669087</v>
+        <v>0.9819304631822037</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9689001554896132</v>
+        <v>0.979997242222061</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9518462347909484</v>
+        <v>0.9608287308977373</v>
       </c>
     </row>
     <row r="11">
@@ -764,22 +764,22 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9700318943273745</v>
+        <v>0.9771786624795892</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9588549341541249</v>
+        <v>0.9717288189521348</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9715734885992532</v>
+        <v>0.9839511001704995</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9561259835736912</v>
+        <v>0.9811625181791677</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9684053439033228</v>
+        <v>0.9794540731716265</v>
       </c>
       <c r="J11" t="n">
-        <v>0.951136523906334</v>
+        <v>0.9599392758945979</v>
       </c>
     </row>
     <row r="12">
@@ -790,28 +790,28 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.970428436744462</v>
+        <v>0.97714393354422</v>
       </c>
       <c r="F12" t="n">
-        <v>0.959397248525321</v>
+        <v>0.9716280087166228</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9719428052682905</v>
+        <v>0.9839296894279472</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9566932817024524</v>
+        <v>0.9811864375834807</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9688025175081908</v>
+        <v>0.9794573105899792</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9517752950552926</v>
+        <v>0.9599181021760785</v>
       </c>
     </row>
     <row r="13">
@@ -822,28 +822,28 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9703452193682173</v>
+        <v>0.977368964663578</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9592143132377107</v>
+        <v>0.9720661348209344</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9719896298438413</v>
+        <v>0.9840793907273916</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9570301762434835</v>
+        <v>0.9811952384366958</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9688889613597496</v>
+        <v>0.9795469850504984</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9517045487841488</v>
+        <v>0.9601920743417294</v>
       </c>
     </row>
     <row r="14">
@@ -857,25 +857,25 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9706144416774045</v>
+        <v>0.9775676077109841</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9596297447706551</v>
+        <v>0.9720029911028919</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9721614664773095</v>
+        <v>0.9842394664280819</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9571262023594416</v>
+        <v>0.981749442727866</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9690479685106522</v>
+        <v>0.9799398859459842</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9520907045427437</v>
+        <v>0.9608279224508095</v>
       </c>
     </row>
     <row r="15">
@@ -886,28 +886,28 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9700226128585461</v>
+        <v>0.9772451648806196</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9589031066995023</v>
+        <v>0.9717160769652935</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9716866692049152</v>
+        <v>0.984093550786225</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9564198071469878</v>
+        <v>0.9816092353579954</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9684780514436159</v>
+        <v>0.9796735386326725</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9510634930401453</v>
+        <v>0.9601694677272948</v>
       </c>
     </row>
     <row r="16">
@@ -918,28 +918,28 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9703176066851439</v>
+        <v>0.9774697158564213</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9590448657068121</v>
+        <v>0.9721102133129446</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9719181647336104</v>
+        <v>0.9842655285169741</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9569814363874196</v>
+        <v>0.9817142782472914</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9689017092329972</v>
+        <v>0.979804030451809</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9517920132714114</v>
+        <v>0.9604627814810897</v>
       </c>
     </row>
     <row r="17">
@@ -953,25 +953,25 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9704866066584158</v>
+        <v>0.9774022588614403</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9595833626297244</v>
+        <v>0.9719746097736112</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9720996505866362</v>
+        <v>0.9841679410628823</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9569842839997218</v>
+        <v>0.9815594397057</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9688915106728204</v>
+        <v>0.9797302355938303</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9517563661370559</v>
+        <v>0.9603895055021052</v>
       </c>
     </row>
     <row r="18">
@@ -982,28 +982,28 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9704855675998684</v>
+        <v>0.9774216269985554</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9594513508897586</v>
+        <v>0.9720175915647786</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9719497677671466</v>
+        <v>0.984133482575912</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9566614308452658</v>
+        <v>0.9813974765184786</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9688345550780261</v>
+        <v>0.9796757351869888</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9519028510458371</v>
+        <v>0.960370992358349</v>
       </c>
     </row>
     <row r="19">
@@ -1017,25 +1017,25 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9705584172162086</v>
+        <v>0.9771813313989169</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9596865278292479</v>
+        <v>0.9716606270865626</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9720905572280228</v>
+        <v>0.9840162166245633</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9568537866232317</v>
+        <v>0.9814382977175571</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9688848854016767</v>
+        <v>0.9795753419898318</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9518664319123264</v>
+        <v>0.9600471448881431</v>
       </c>
     </row>
     <row r="20">
@@ -1049,25 +1049,25 @@
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9701812376855151</v>
+        <v>0.977377899029214</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9591715366465962</v>
+        <v>0.9717424192802449</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9717941858175605</v>
+        <v>0.9841408903543907</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9564776463630938</v>
+        <v>0.9817189056444062</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9685589945106057</v>
+        <v>0.9798310091680452</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9512545910290247</v>
+        <v>0.9605327945437595</v>
       </c>
     </row>
     <row r="21">
@@ -1078,28 +1078,28 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D21" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9699890976746385</v>
+        <v>0.9774673724492771</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9586564400371413</v>
+        <v>0.9718502122085383</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9715800786264296</v>
+        <v>0.9842065641664063</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9563491461723761</v>
+        <v>0.981828691004577</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9685005782330913</v>
+        <v>0.9799233217166954</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9512050452325581</v>
+        <v>0.9607226086515286</v>
       </c>
     </row>
     <row r="22">
@@ -1116,22 +1116,22 @@
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9703205561362872</v>
+        <v>0.9772282175087978</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9592937415538939</v>
+        <v>0.9716813707894367</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9718860381188821</v>
+        <v>0.9839337436839346</v>
       </c>
       <c r="H22" t="n">
-        <v>0.956626460969896</v>
+        <v>0.9811389500727105</v>
       </c>
       <c r="I22" t="n">
-        <v>0.968711124391911</v>
+        <v>0.9795102291483757</v>
       </c>
       <c r="J22" t="n">
-        <v>0.9515630048473834</v>
+        <v>0.9601261520608206</v>
       </c>
     </row>
     <row r="23">
@@ -1145,25 +1145,25 @@
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9703285811885188</v>
+        <v>0.9776032844513336</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9594800088634078</v>
+        <v>0.9723411927962461</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9719867124809829</v>
+        <v>0.9844478546091234</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9567464414608728</v>
+        <v>0.9820561310455237</v>
       </c>
       <c r="I23" t="n">
-        <v>0.9686933173460008</v>
+        <v>0.9799770121034715</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9513914433438597</v>
+        <v>0.9606624434346741</v>
       </c>
     </row>
     <row r="24">
@@ -1177,25 +1177,25 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9700656022373326</v>
+        <v>0.9774557705159266</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9588486387848901</v>
+        <v>0.9722083796883539</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9715617455788158</v>
+        <v>0.9843493280923036</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9560966525318079</v>
+        <v>0.9818948232039791</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9684336744290535</v>
+        <v>0.9798235801324561</v>
       </c>
       <c r="J24" t="n">
-        <v>0.9512518597456278</v>
+        <v>0.9603538143376569</v>
       </c>
     </row>
     <row r="25">
@@ -1206,28 +1206,28 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>0.970131474971312</v>
+        <v>0.977383517269924</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9589514139662386</v>
+        <v>0.9719617494275595</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9717343014639398</v>
+        <v>0.9842054786446888</v>
       </c>
       <c r="H25" t="n">
-        <v>0.956512051589442</v>
+        <v>0.981697758248759</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9685986758571232</v>
+        <v>0.9797573495045788</v>
       </c>
       <c r="J25" t="n">
-        <v>0.9513368842862177</v>
+        <v>0.9603348586016248</v>
       </c>
     </row>
     <row r="26">
@@ -1238,28 +1238,28 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>0.970276959584482</v>
+        <v>0.9772784444875534</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9593799546458598</v>
+        <v>0.9719660981739724</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9719660621918919</v>
+        <v>0.9841274556164012</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9567850884889693</v>
+        <v>0.9814453219611899</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9686842702787096</v>
+        <v>0.9795772454478847</v>
       </c>
       <c r="J26" t="n">
-        <v>0.9513266514838112</v>
+        <v>0.9600399598545285</v>
       </c>
     </row>
     <row r="27">
@@ -1273,25 +1273,25 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9700415067332547</v>
+        <v>0.9775854733525253</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9586937234537002</v>
+        <v>0.9721372720857663</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9715848839063247</v>
+        <v>0.9843174409234801</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9563258866941529</v>
+        <v>0.9818732979135535</v>
       </c>
       <c r="I27" t="n">
-        <v>0.9685329843559201</v>
+        <v>0.9799607095809086</v>
       </c>
       <c r="J27" t="n">
-        <v>0.951326376846393</v>
+        <v>0.9607883813643886</v>
       </c>
     </row>
     <row r="28">
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9701061702226561</v>
+        <v>0.9773175120815037</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9589881890610052</v>
+        <v>0.9721233799616803</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9718206485966003</v>
+        <v>0.9840993646026893</v>
       </c>
       <c r="H28" t="n">
-        <v>0.9567390283186841</v>
+        <v>0.9811958800031041</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9686341274581524</v>
+        <v>0.9794763308901786</v>
       </c>
       <c r="J28" t="n">
-        <v>0.9512193729016956</v>
+        <v>0.9599762661759994</v>
       </c>
     </row>
     <row r="29">
@@ -1340,22 +1340,22 @@
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9703060146517349</v>
+        <v>0.9772552749022164</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9593171545310821</v>
+        <v>0.9718172537373074</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9718833349066834</v>
+        <v>0.984164522093318</v>
       </c>
       <c r="H29" t="n">
-        <v>0.9565952248222848</v>
+        <v>0.9817187877785033</v>
       </c>
       <c r="I29" t="n">
-        <v>0.9686788245269263</v>
+        <v>0.979686998751105</v>
       </c>
       <c r="J29" t="n">
-        <v>0.9514962163833269</v>
+        <v>0.9600938632713102</v>
       </c>
     </row>
     <row r="30">
@@ -1366,28 +1366,28 @@
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>0.970256110389334</v>
+        <v>0.9770132704694916</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9589760924024642</v>
+        <v>0.9713673483802895</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9717300456054934</v>
+        <v>0.9837499630815684</v>
       </c>
       <c r="H30" t="n">
-        <v>0.9564756453189015</v>
+        <v>0.9809022573690176</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9687045104114864</v>
+        <v>0.9793206103624719</v>
       </c>
       <c r="J30" t="n">
-        <v>0.951693976793086</v>
+        <v>0.9597906625889225</v>
       </c>
     </row>
     <row r="31">
@@ -1398,28 +1398,28 @@
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9703503163389552</v>
+        <v>0.9775439286286818</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9592215252526211</v>
+        <v>0.9721791003561799</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9718255415497178</v>
+        <v>0.984214062380493</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9565184663988491</v>
+        <v>0.9814965292551834</v>
       </c>
       <c r="I31" t="n">
-        <v>0.9687230598625778</v>
+        <v>0.9797788953431562</v>
       </c>
       <c r="J31" t="n">
-        <v>0.951710505150259</v>
+        <v>0.9606056758222686</v>
       </c>
     </row>
     <row r="32">
@@ -1433,25 +1433,25 @@
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E32" t="n">
-        <v>0.970544490222725</v>
+        <v>0.977411510652478</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9594255159459446</v>
+        <v>0.9720330413322616</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9720912535647509</v>
+        <v>0.9841842851081973</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9571264444029779</v>
+        <v>0.9815471941412497</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9690410824832852</v>
+        <v>0.9797144146206471</v>
       </c>
       <c r="J32" t="n">
-        <v>0.9520739841574056</v>
+        <v>0.960354949853274</v>
       </c>
     </row>
     <row r="33">
@@ -1462,28 +1462,28 @@
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9701980529479657</v>
+        <v>0.9773331475624385</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9591895600436352</v>
+        <v>0.9716385157491222</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9717522027582559</v>
+        <v>0.9839698638778442</v>
       </c>
       <c r="H33" t="n">
-        <v>0.9563281950399625</v>
+        <v>0.9812899160291368</v>
       </c>
       <c r="I33" t="n">
-        <v>0.9685223115344664</v>
+        <v>0.9796755641914491</v>
       </c>
       <c r="J33" t="n">
-        <v>0.9512900230044834</v>
+        <v>0.9604802939410944</v>
       </c>
     </row>
     <row r="34">
@@ -1500,22 +1500,22 @@
         <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9703377087013273</v>
+        <v>0.9773101120383337</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9594315536776361</v>
+        <v>0.9720391611609583</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9718598396215814</v>
+        <v>0.9840899161340815</v>
       </c>
       <c r="H34" t="n">
-        <v>0.9564130526466058</v>
+        <v>0.9812486554066001</v>
       </c>
       <c r="I34" t="n">
-        <v>0.9686075281965723</v>
+        <v>0.9795103503035781</v>
       </c>
       <c r="J34" t="n">
-        <v>0.9514656073750389</v>
+        <v>0.9600204235441302</v>
       </c>
     </row>
     <row r="35">
@@ -1529,25 +1529,25 @@
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>0.970217743884026</v>
+        <v>0.9773142235698817</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9589328597692311</v>
+        <v>0.9717761225151198</v>
       </c>
       <c r="G35" t="n">
-        <v>0.971762130365836</v>
+        <v>0.9841437421605213</v>
       </c>
       <c r="H35" t="n">
-        <v>0.9566155665763229</v>
+        <v>0.9817088553896623</v>
       </c>
       <c r="I35" t="n">
-        <v>0.9687293405583148</v>
+        <v>0.9797527428686335</v>
       </c>
       <c r="J35" t="n">
-        <v>0.9516289800000037</v>
+        <v>0.960314249858128</v>
       </c>
     </row>
     <row r="36">
@@ -1558,28 +1558,28 @@
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D36" t="n">
         <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9701479503071051</v>
+        <v>0.9774632731130892</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9590950384078811</v>
+        <v>0.9719302866373496</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9717226867493207</v>
+        <v>0.984050851119487</v>
       </c>
       <c r="H36" t="n">
-        <v>0.9563373410357311</v>
+        <v>0.9812407786645986</v>
       </c>
       <c r="I36" t="n">
-        <v>0.9685059774952186</v>
+        <v>0.9796915100742234</v>
       </c>
       <c r="J36" t="n">
-        <v>0.9512335589684197</v>
+        <v>0.9605799378617673</v>
       </c>
     </row>
     <row r="37">
@@ -1596,22 +1596,22 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9703735693708972</v>
+        <v>0.977536521220653</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9592601440511357</v>
+        <v>0.9723990457975674</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9719138480697515</v>
+        <v>0.9843947093589988</v>
       </c>
       <c r="H37" t="n">
-        <v>0.9567447818039676</v>
+        <v>0.9818423948780197</v>
       </c>
       <c r="I37" t="n">
-        <v>0.968811226206664</v>
+        <v>0.9798240558497332</v>
       </c>
       <c r="J37" t="n">
-        <v>0.9517502709092438</v>
+        <v>0.9604096354183875</v>
       </c>
     </row>
     <row r="38">
@@ -1622,28 +1622,28 @@
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
         <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9702560071152599</v>
+        <v>0.9773950744030059</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9590921570312084</v>
+        <v>0.9721021750305758</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9717523595529711</v>
+        <v>0.9842438804027629</v>
       </c>
       <c r="H38" t="n">
-        <v>0.9564282338791392</v>
+        <v>0.9816769855577764</v>
       </c>
       <c r="I38" t="n">
-        <v>0.9686445368246566</v>
+        <v>0.9797187572288741</v>
       </c>
       <c r="J38" t="n">
-        <v>0.9515626488206383</v>
+        <v>0.9602466729884888</v>
       </c>
     </row>
     <row r="39">
@@ -1654,28 +1654,28 @@
         <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9700771863821246</v>
+        <v>0.9776641619561233</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9589392454856046</v>
+        <v>0.9723008695465236</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9717279269269152</v>
+        <v>0.9844507529322175</v>
       </c>
       <c r="H39" t="n">
-        <v>0.956508792585288</v>
+        <v>0.9820956600451975</v>
       </c>
       <c r="I39" t="n">
-        <v>0.9685432337094293</v>
+        <v>0.980062515935764</v>
       </c>
       <c r="J39" t="n">
-        <v>0.9511743872081017</v>
+        <v>0.9608731858013968</v>
       </c>
     </row>
     <row r="40">
@@ -1686,28 +1686,28 @@
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9704019622336102</v>
+        <v>0.977226440444269</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9593463190264253</v>
+        <v>0.9715712806750818</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9719411153537412</v>
+        <v>0.9839201912325718</v>
       </c>
       <c r="H40" t="n">
-        <v>0.9567462007755461</v>
+        <v>0.9812268000647486</v>
       </c>
       <c r="I40" t="n">
-        <v>0.9688095045592436</v>
+        <v>0.9795698104099045</v>
       </c>
       <c r="J40" t="n">
-        <v>0.9517457715294042</v>
+        <v>0.9602319222215981</v>
       </c>
     </row>
     <row r="41">
@@ -1721,25 +1721,25 @@
         <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9703975051521704</v>
+        <v>0.9772321261272362</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9591751646227079</v>
+        <v>0.9717940802578251</v>
       </c>
       <c r="G41" t="n">
-        <v>0.971953952400248</v>
+        <v>0.9840139532917332</v>
       </c>
       <c r="H41" t="n">
-        <v>0.9569594232749494</v>
+        <v>0.9812820146049364</v>
       </c>
       <c r="I41" t="n">
-        <v>0.9689325824294928</v>
+        <v>0.9795264257406563</v>
       </c>
       <c r="J41" t="n">
-        <v>0.9519067684304267</v>
+        <v>0.9600471179491551</v>
       </c>
     </row>
     <row r="42">
@@ -1753,25 +1753,25 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9701900025559733</v>
+        <v>0.9775670482316571</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9589705893500954</v>
+        <v>0.9720790705623936</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9718940648605014</v>
+        <v>0.9842912935836474</v>
       </c>
       <c r="H42" t="n">
-        <v>0.9569847165918369</v>
+        <v>0.9818311505710686</v>
       </c>
       <c r="I42" t="n">
-        <v>0.9688016431711916</v>
+        <v>0.9799450225550949</v>
       </c>
       <c r="J42" t="n">
-        <v>0.9514843735860504</v>
+        <v>0.9607734901090438</v>
       </c>
     </row>
     <row r="43">
@@ -1782,28 +1782,28 @@
         <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9701384405170379</v>
+        <v>0.9775082962070273</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9591005514052199</v>
+        <v>0.9719363992456794</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9717354010718227</v>
+        <v>0.9842197810485815</v>
       </c>
       <c r="H43" t="n">
-        <v>0.9563667958823464</v>
+        <v>0.9817461858646935</v>
       </c>
       <c r="I43" t="n">
-        <v>0.9685080904341298</v>
+        <v>0.9799023069937131</v>
       </c>
       <c r="J43" t="n">
-        <v>0.9512073270671251</v>
+        <v>0.960719187351074</v>
       </c>
     </row>
     <row r="44">
@@ -1817,25 +1817,25 @@
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9704166418742616</v>
+        <v>0.977718508732065</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9592835100263313</v>
+        <v>0.9724900053026261</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9718808861322029</v>
+        <v>0.9844742686628722</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9566230165484561</v>
+        <v>0.9819794745930279</v>
       </c>
       <c r="I44" t="n">
-        <v>0.9688084219384645</v>
+        <v>0.980015424143417</v>
       </c>
       <c r="J44" t="n">
-        <v>0.9518625259175295</v>
+        <v>0.9608465586729777</v>
       </c>
     </row>
     <row r="45">
@@ -1846,28 +1846,28 @@
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="D45" t="n">
         <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9702267497755342</v>
+        <v>0.9774468016119191</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9592070520851135</v>
+        <v>0.9719561131948785</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9718519945623907</v>
+        <v>0.9841596558420029</v>
       </c>
       <c r="H45" t="n">
-        <v>0.9566207177658624</v>
+        <v>0.9815773769054317</v>
       </c>
       <c r="I45" t="n">
-        <v>0.9686398358292924</v>
+        <v>0.9797801923923516</v>
       </c>
       <c r="J45" t="n">
-        <v>0.9513570500781814</v>
+        <v>0.9605348848917203</v>
       </c>
     </row>
     <row r="46">
@@ -1881,25 +1881,25 @@
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9702520639380562</v>
+        <v>0.9771841219328021</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9592180342362141</v>
+        <v>0.9715125944479959</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9718852010106657</v>
+        <v>0.9839684882538322</v>
       </c>
       <c r="H46" t="n">
-        <v>0.9567098532516156</v>
+        <v>0.9814472883174085</v>
       </c>
       <c r="I46" t="n">
-        <v>0.9686854839969006</v>
+        <v>0.9796246906755385</v>
       </c>
       <c r="J46" t="n">
-        <v>0.9514090939732607</v>
+        <v>0.9601883428182495</v>
       </c>
     </row>
     <row r="47">
@@ -1910,28 +1910,28 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="D47" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9703777381829645</v>
+        <v>0.977415820539149</v>
       </c>
       <c r="F47" t="n">
-        <v>0.959394985384876</v>
+        <v>0.9719090992898424</v>
       </c>
       <c r="G47" t="n">
-        <v>0.9719216797814906</v>
+        <v>0.9840712058660025</v>
       </c>
       <c r="H47" t="n">
-        <v>0.9566373258163873</v>
+        <v>0.9813273115831729</v>
       </c>
       <c r="I47" t="n">
-        <v>0.9687295556455296</v>
+        <v>0.9796806139899423</v>
       </c>
       <c r="J47" t="n">
-        <v>0.9516131724991785</v>
+        <v>0.9604533596871774</v>
       </c>
     </row>
     <row r="48">
@@ -1945,25 +1945,25 @@
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9704600052445964</v>
+        <v>0.9775961706598751</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9593205613496586</v>
+        <v>0.9722084240789416</v>
       </c>
       <c r="G48" t="n">
-        <v>0.9720902687236797</v>
+        <v>0.984361778418142</v>
       </c>
       <c r="H48" t="n">
-        <v>0.9572302623909142</v>
+        <v>0.9819249846949314</v>
       </c>
       <c r="I48" t="n">
-        <v>0.9690320188575747</v>
+        <v>0.9799591420438893</v>
       </c>
       <c r="J48" t="n">
-        <v>0.9519403753805117</v>
+        <v>0.96072047941237</v>
       </c>
     </row>
     <row r="49">
@@ -1974,28 +1974,28 @@
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9700755820338335</v>
+        <v>0.9772306112326322</v>
       </c>
       <c r="F49" t="n">
-        <v>0.958905947363704</v>
+        <v>0.9716844338528376</v>
       </c>
       <c r="G49" t="n">
-        <v>0.9717427931930516</v>
+        <v>0.9840417249888659</v>
       </c>
       <c r="H49" t="n">
-        <v>0.9565888902978881</v>
+        <v>0.9815021038040656</v>
       </c>
       <c r="I49" t="n">
-        <v>0.968581165287152</v>
+        <v>0.9796325982403509</v>
       </c>
       <c r="J49" t="n">
-        <v>0.9512095168789958</v>
+        <v>0.9601648327821845</v>
       </c>
     </row>
     <row r="50">
@@ -2006,28 +2006,28 @@
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D50" t="n">
         <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9703862965212052</v>
+        <v>0.9774300271596132</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9594054545028222</v>
+        <v>0.9720177382613515</v>
       </c>
       <c r="G50" t="n">
-        <v>0.9720220829761725</v>
+        <v>0.9842366231340128</v>
       </c>
       <c r="H50" t="n">
-        <v>0.9569299253512684</v>
+        <v>0.981748944428638</v>
       </c>
       <c r="I50" t="n">
-        <v>0.9688311624551688</v>
+        <v>0.9798090038303898</v>
       </c>
       <c r="J50" t="n">
-        <v>0.9516291150186692</v>
+        <v>0.9604616766069074</v>
       </c>
     </row>
     <row r="51">
@@ -2038,28 +2038,28 @@
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9702294727195729</v>
+        <v>0.9773058959778445</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9590869149348814</v>
+        <v>0.9718429194719718</v>
       </c>
       <c r="G51" t="n">
-        <v>0.9718461657539762</v>
+        <v>0.9841342018526436</v>
       </c>
       <c r="H51" t="n">
-        <v>0.9567231361781512</v>
+        <v>0.981600115827363</v>
       </c>
       <c r="I51" t="n">
-        <v>0.9687148762648849</v>
+        <v>0.9796863912685613</v>
       </c>
       <c r="J51" t="n">
-        <v>0.9514837484571241</v>
+        <v>0.9602081969408348</v>
       </c>
     </row>
     <row r="52">
@@ -2070,28 +2070,28 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="D52" t="n">
         <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9704669536096668</v>
+        <v>0.9772880305785692</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9594859231522873</v>
+        <v>0.9719160675676404</v>
       </c>
       <c r="G52" t="n">
-        <v>0.9720956183707057</v>
+        <v>0.9842251682040564</v>
       </c>
       <c r="H52" t="n">
-        <v>0.9570717704811684</v>
+        <v>0.9818123461127599</v>
       </c>
       <c r="I52" t="n">
-        <v>0.9689317929254584</v>
+        <v>0.9797189945262025</v>
       </c>
       <c r="J52" t="n">
-        <v>0.9517915505772928</v>
+        <v>0.9601076102700475</v>
       </c>
     </row>
     <row r="53">
@@ -2105,25 +2105,25 @@
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9701780337663291</v>
+        <v>0.9773707723597607</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9590637564550356</v>
+        <v>0.9720451621259546</v>
       </c>
       <c r="G53" t="n">
-        <v>0.9717490835022692</v>
+        <v>0.9840682269499144</v>
       </c>
       <c r="H53" t="n">
-        <v>0.9564481240339306</v>
+        <v>0.9811773108541787</v>
       </c>
       <c r="I53" t="n">
-        <v>0.9685819588663759</v>
+        <v>0.9795476254105336</v>
       </c>
       <c r="J53" t="n">
-        <v>0.9513528076319795</v>
+        <v>0.9602120223653002</v>
       </c>
     </row>
     <row r="54">
@@ -2137,25 +2137,25 @@
         <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9702075287989494</v>
+        <v>0.9773417631462326</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9592450200615231</v>
+        <v>0.9719966233677828</v>
       </c>
       <c r="G54" t="n">
-        <v>0.9719250677189482</v>
+        <v>0.9840857289254529</v>
       </c>
       <c r="H54" t="n">
-        <v>0.9567994227132154</v>
+        <v>0.9812741453445185</v>
       </c>
       <c r="I54" t="n">
-        <v>0.9686689158270936</v>
+        <v>0.9795680872195816</v>
       </c>
       <c r="J54" t="n">
-        <v>0.951265039284753</v>
+        <v>0.9601748827919427</v>
       </c>
     </row>
     <row r="55">
@@ -2166,28 +2166,28 @@
         <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>0.970180798793585</v>
+        <v>0.977509388859677</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9592502140212334</v>
+        <v>0.9721703081008339</v>
       </c>
       <c r="G55" t="n">
-        <v>0.9717784003799089</v>
+        <v>0.9842748785120097</v>
       </c>
       <c r="H55" t="n">
-        <v>0.9563452944655734</v>
+        <v>0.9816841404807175</v>
       </c>
       <c r="I55" t="n">
-        <v>0.9684896753165737</v>
+        <v>0.9798080198544213</v>
       </c>
       <c r="J55" t="n">
-        <v>0.9511741199427661</v>
+        <v>0.960493610266177</v>
       </c>
     </row>
     <row r="56">
@@ -2198,28 +2198,28 @@
         <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
         <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9700004633972691</v>
+        <v>0.9771470479375867</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9586076194106975</v>
+        <v>0.9716311292075821</v>
       </c>
       <c r="G56" t="n">
-        <v>0.9716324058254664</v>
+        <v>0.9840152216697391</v>
       </c>
       <c r="H56" t="n">
-        <v>0.956562366519642</v>
+        <v>0.9814326211183637</v>
       </c>
       <c r="I56" t="n">
-        <v>0.968594025955867</v>
+        <v>0.9795451216380442</v>
       </c>
       <c r="J56" t="n">
-        <v>0.9512780157732131</v>
+        <v>0.9599417438080322</v>
       </c>
     </row>
     <row r="57">
@@ -2233,25 +2233,25 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9701464823828175</v>
+        <v>0.9772758295507293</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9590638124268221</v>
+        <v>0.9718589445804466</v>
       </c>
       <c r="G57" t="n">
-        <v>0.9717629244934196</v>
+        <v>0.9840928979328015</v>
       </c>
       <c r="H57" t="n">
-        <v>0.9564947390445664</v>
+        <v>0.9814454147317225</v>
       </c>
       <c r="I57" t="n">
-        <v>0.9685667434168264</v>
+        <v>0.9796061183333512</v>
       </c>
       <c r="J57" t="n">
-        <v>0.9512611793501001</v>
+        <v>0.9601256069548249</v>
       </c>
     </row>
     <row r="58">
@@ -2265,25 +2265,25 @@
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9702301174958039</v>
+        <v>0.9773729697350517</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9589277777011342</v>
+        <v>0.972039851729336</v>
       </c>
       <c r="G58" t="n">
-        <v>0.971701225678445</v>
+        <v>0.9841333326858785</v>
       </c>
       <c r="H58" t="n">
-        <v>0.9564424594556209</v>
+        <v>0.9814045990507017</v>
       </c>
       <c r="I58" t="n">
-        <v>0.9686819001421242</v>
+        <v>0.9796289882481658</v>
       </c>
       <c r="J58" t="n">
-        <v>0.9516607466063292</v>
+        <v>0.960243269700378</v>
       </c>
     </row>
     <row r="59">
@@ -2294,28 +2294,28 @@
         <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D59" t="n">
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9704429430963927</v>
+        <v>0.9774436838318784</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9594943346635485</v>
+        <v>0.971886859373397</v>
       </c>
       <c r="G59" t="n">
-        <v>0.9720231138161725</v>
+        <v>0.9841526619733302</v>
       </c>
       <c r="H59" t="n">
-        <v>0.9568444099075409</v>
+        <v>0.98159735732605</v>
       </c>
       <c r="I59" t="n">
-        <v>0.968834036221182</v>
+        <v>0.9798079150654897</v>
       </c>
       <c r="J59" t="n">
-        <v>0.951721571157183</v>
+        <v>0.9605845544502996</v>
       </c>
     </row>
     <row r="60">
@@ -2326,28 +2326,28 @@
         <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9701281871364049</v>
+        <v>0.9774233748738661</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9589618604119151</v>
+        <v>0.9719921907357608</v>
       </c>
       <c r="G60" t="n">
-        <v>0.9718168418218462</v>
+        <v>0.984204628879807</v>
       </c>
       <c r="H60" t="n">
-        <v>0.9567545575051847</v>
+        <v>0.9816463246284376</v>
       </c>
       <c r="I60" t="n">
-        <v>0.9686690529200011</v>
+        <v>0.9797742462654706</v>
       </c>
       <c r="J60" t="n">
-        <v>0.9513093962704823</v>
+        <v>0.9604307104866808</v>
       </c>
     </row>
     <row r="61">
@@ -2358,28 +2358,28 @@
         <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9700075947440666</v>
+        <v>0.9772794557402973</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9587192584551422</v>
+        <v>0.9717558787410704</v>
       </c>
       <c r="G61" t="n">
-        <v>0.9715220418327106</v>
+        <v>0.983927066493972</v>
       </c>
       <c r="H61" t="n">
-        <v>0.9561049095168842</v>
+        <v>0.9810437818515204</v>
       </c>
       <c r="I61" t="n">
-        <v>0.9684199624442135</v>
+        <v>0.9795021094357206</v>
       </c>
       <c r="J61" t="n">
-        <v>0.9512014037261047</v>
+        <v>0.9601969206080669</v>
       </c>
     </row>
     <row r="62">
@@ -2390,28 +2390,28 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9701706528665011</v>
+        <v>0.977487475415681</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9590086966096308</v>
+        <v>0.9720420218935759</v>
       </c>
       <c r="G62" t="n">
-        <v>0.9717973882511939</v>
+        <v>0.984194770052424</v>
       </c>
       <c r="H62" t="n">
-        <v>0.9566568871521733</v>
+        <v>0.9815889704633894</v>
       </c>
       <c r="I62" t="n">
-        <v>0.9686601399559948</v>
+        <v>0.979798109237188</v>
       </c>
       <c r="J62" t="n">
-        <v>0.9513841601028667</v>
+        <v>0.9605772472117978</v>
       </c>
     </row>
     <row r="63">
@@ -2425,25 +2425,25 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9702889907337358</v>
+        <v>0.9777464046792008</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9589718756570977</v>
+        <v>0.9724586737550334</v>
       </c>
       <c r="G63" t="n">
-        <v>0.9717489044032325</v>
+        <v>0.9843812986910065</v>
       </c>
       <c r="H63" t="n">
-        <v>0.9565367526545406</v>
+        <v>0.9817045306089723</v>
       </c>
       <c r="I63" t="n">
-        <v>0.9687608674468504</v>
+        <v>0.9799565940465597</v>
       </c>
       <c r="J63" t="n">
-        <v>0.9518034438669623</v>
+        <v>0.9609244896232615</v>
       </c>
     </row>
     <row r="64">
@@ -2457,25 +2457,25 @@
         <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>0.970091368463712</v>
+        <v>0.9775160642140951</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9589985033176835</v>
+        <v>0.9723245895995096</v>
       </c>
       <c r="G64" t="n">
-        <v>0.9717501616173421</v>
+        <v>0.9843267111189584</v>
       </c>
       <c r="H64" t="n">
-        <v>0.9565156368455972</v>
+        <v>0.9817035841114619</v>
       </c>
       <c r="I64" t="n">
-        <v>0.9685396549645141</v>
+        <v>0.9797768264244791</v>
       </c>
       <c r="J64" t="n">
-        <v>0.9511567842655501</v>
+        <v>0.9603971788302291</v>
       </c>
     </row>
     <row r="65">
@@ -2486,28 +2486,28 @@
         <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D65" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9704010712489841</v>
+        <v>0.9775985144428772</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9591103527189688</v>
+        <v>0.972151617916342</v>
       </c>
       <c r="G65" t="n">
-        <v>0.9720109534363297</v>
+        <v>0.9842086559646932</v>
       </c>
       <c r="H65" t="n">
-        <v>0.9571971399637028</v>
+        <v>0.9814934980637681</v>
       </c>
       <c r="I65" t="n">
-        <v>0.9690358223541813</v>
+        <v>0.9798386589993706</v>
       </c>
       <c r="J65" t="n">
-        <v>0.9519819993302508</v>
+        <v>0.9607714013281949</v>
       </c>
     </row>
     <row r="66">
@@ -2521,25 +2521,25 @@
         <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9701432399752634</v>
+        <v>0.9772006131482823</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9589302032033502</v>
+        <v>0.9715920716358152</v>
       </c>
       <c r="G66" t="n">
-        <v>0.9718424641369121</v>
+        <v>0.9839065701720857</v>
       </c>
       <c r="H66" t="n">
-        <v>0.956872127439597</v>
+        <v>0.9811581242051364</v>
       </c>
       <c r="I66" t="n">
-        <v>0.9687289009352922</v>
+        <v>0.9795183453708207</v>
       </c>
       <c r="J66" t="n">
-        <v>0.9513780871313389</v>
+        <v>0.960143185175483</v>
       </c>
     </row>
     <row r="67">
@@ -2550,28 +2550,28 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D67" t="n">
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9703046113362871</v>
+        <v>0.9773372367124775</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9590448348659359</v>
+        <v>0.971818354947493</v>
       </c>
       <c r="G67" t="n">
-        <v>0.9718468159409231</v>
+        <v>0.9841983037716115</v>
       </c>
       <c r="H67" t="n">
-        <v>0.9567696998052843</v>
+        <v>0.9818206626834217</v>
       </c>
       <c r="I67" t="n">
-        <v>0.9688201959743075</v>
+        <v>0.9798029909372286</v>
       </c>
       <c r="J67" t="n">
-        <v>0.9517569835021208</v>
+        <v>0.9603510598620736</v>
       </c>
     </row>
     <row r="68">
@@ -2588,22 +2588,22 @@
         <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9704211420443754</v>
+        <v>0.9774926918455591</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9592693198434382</v>
+        <v>0.971917791982406</v>
       </c>
       <c r="G68" t="n">
-        <v>0.9720589295005601</v>
+        <v>0.9841995338091001</v>
       </c>
       <c r="H68" t="n">
-        <v>0.957184686511914</v>
+        <v>0.9817214695274074</v>
       </c>
       <c r="I68" t="n">
-        <v>0.9689990803001197</v>
+        <v>0.9798858820008397</v>
       </c>
       <c r="J68" t="n">
-        <v>0.951883330027129</v>
+        <v>0.9607037947041133</v>
       </c>
     </row>
     <row r="69">
@@ -2617,25 +2617,25 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9702368614172838</v>
+        <v>0.977485802606581</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9589512766254477</v>
+        <v>0.9718854492944394</v>
       </c>
       <c r="G69" t="n">
-        <v>0.971819991472571</v>
+        <v>0.9842344439710179</v>
       </c>
       <c r="H69" t="n">
-        <v>0.9567838012249821</v>
+        <v>0.9818771631268697</v>
       </c>
       <c r="I69" t="n">
-        <v>0.9687855952373062</v>
+        <v>0.979944577282124</v>
       </c>
       <c r="J69" t="n">
-        <v>0.9516390288014461</v>
+        <v>0.960739782823954</v>
       </c>
     </row>
     <row r="70">
@@ -2646,28 +2646,28 @@
         <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
         <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9703023001376838</v>
+        <v>0.9772861538761904</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9592968974304726</v>
+        <v>0.9718158933023355</v>
       </c>
       <c r="G70" t="n">
-        <v>0.9720165065255721</v>
+        <v>0.9841944861645474</v>
       </c>
       <c r="H70" t="n">
-        <v>0.9570263097243853</v>
+        <v>0.9818147544112173</v>
       </c>
       <c r="I70" t="n">
-        <v>0.9688130677855141</v>
+        <v>0.9797531966341294</v>
       </c>
       <c r="J70" t="n">
-        <v>0.9514799651085586</v>
+        <v>0.9602105298626187</v>
       </c>
     </row>
     <row r="71">
@@ -2684,22 +2684,22 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9702617357026785</v>
+        <v>0.9775138637882682</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9591643012909004</v>
+        <v>0.9720666350865514</v>
       </c>
       <c r="G71" t="n">
-        <v>0.9717958415628017</v>
+        <v>0.9843034837513978</v>
       </c>
       <c r="H71" t="n">
-        <v>0.9564843127070812</v>
+        <v>0.9818969541350463</v>
       </c>
       <c r="I71" t="n">
-        <v>0.9686470436464906</v>
+        <v>0.9799211940332524</v>
       </c>
       <c r="J71" t="n">
-        <v>0.9515114310398277</v>
+        <v>0.9606397975769501</v>
       </c>
     </row>
   </sheetData>
